--- a/articles.xlsx
+++ b/articles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,6 +1713,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A ‘Bag of Helium’ Helps Chelsea Handler Start Her ‘Daily Show’ Guest Stint</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Feb. 7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Handler poked fun at the Chinese surveillance balloon that a U.S. fighter jet shot down off the coast of South Carolina on Saturday.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>article_51.jpg</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>What’s on TV This Week: ‘The 7 Toughest Days on Earth’ and Super Bowl LVII</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Feb. 6</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A new adventure series is on National Geographic, the Super Bowl airs on Fox, and President Biden delivers his second State of the Union address.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>article_52.jpg</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>‘S.N.L.’ Gives Comic Voice to the Downed Chinese Spy Balloon</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Feb. 5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bowen Yang played the balloon wreckage as it floated off the Eastern Seaboard, in a wide-ranging episode hosted by Pedro Pascal.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>article_53.jpg</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jimmy Kimmel Puts Mike Lindell Inside a Claw Machine</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Feb. 1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The MyPillow founder and election denier wanted to appear on “Jimmy Kimmel Live” again, but the host had one condition.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>article_54.jpg</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Beauty in the Aftermath</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Feb. 18</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Documenting the recovery of a Chinese spy balloon off South Carolina, a Navy photographer produced some spectacular images with surprising art-historical undercurrents.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>article_55.jpg</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>A ‘Bag of Helium’ Helps Chelsea Handler Start Her ‘Daily Show’ Guest Stint</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Feb. 7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Handler poked fun at the Chinese surveillance balloon that a U.S. fighter jet shot down off the coast of South Carolina on Saturday.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>article_56.jpg</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>What’s on TV This Week: ‘The 7 Toughest Days on Earth’ and Super Bowl LVII</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Feb. 6</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A new adventure series is on National Geographic, the Super Bowl airs on Fox, and President Biden delivers his second State of the Union address.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>article_57.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>‘S.N.L.’ Gives Comic Voice to the Downed Chinese Spy Balloon</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Feb. 5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Bowen Yang played the balloon wreckage as it floated off the Eastern Seaboard, in a wide-ranging episode hosted by Pedro Pascal.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>article_58.jpg</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jimmy Kimmel Puts Mike Lindell Inside a Claw Machine</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Feb. 1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The MyPillow founder and election denier wanted to appear on “Jimmy Kimmel Live” again, but the host had one condition.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>article_59.jpg</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Beauty in the Aftermath</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Feb. 18</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Documenting the recovery of a Chinese spy balloon off South Carolina, a Navy photographer produced some spectacular images with surprising art-historical undercurrents.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>article_61.jpg</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
